--- a/tests/fixtures/verification/cases/semantic/00004/00004-wc_lang.xlsx
+++ b/tests/fixtures/verification/cases/semantic/00004/00004-wc_lang.xlsx
@@ -9,7 +9,9 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-22240" yWindow="2200" windowWidth="22180" windowHeight="10380" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="30140" windowHeight="6440" tabRatio="500" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="2580" yWindow="13880" windowWidth="29660" windowHeight="6680" tabRatio="500" firstSheet="4" activeTab="12"/>
+    <workbookView xWindow="1840" yWindow="6940" windowWidth="29340" windowHeight="6880" tabRatio="500" firstSheet="9" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="!!_Table of contents" sheetId="1" r:id="rId1"/>
@@ -4228,7 +4230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="217">
   <si>
     <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2019-12-05 16:22:38'</t>
   </si>
@@ -4752,9 +4754,6 @@
     <t>forward</t>
   </si>
   <si>
-    <t>k1 * S1[c]</t>
-  </si>
-  <si>
     <t>k1</t>
   </si>
   <si>
@@ -4776,9 +4775,6 @@
     <t>dist-init-conc-S2[c]</t>
   </si>
   <si>
-    <t>1 / (molecule * second)</t>
-  </si>
-  <si>
     <t>s^-1</t>
   </si>
   <si>
@@ -4788,9 +4784,6 @@
     <t>gram / liter</t>
   </si>
   <si>
-    <t>density not used</t>
-  </si>
-  <si>
     <t>test_case_00004</t>
   </si>
   <si>
@@ -4812,29 +4805,93 @@
     <t>[c]: (2) S2 ==&gt; S1</t>
   </si>
   <si>
-    <t>k2 * S2[c] * S2[c]</t>
-  </si>
-  <si>
     <t>reaction_2-forward</t>
   </si>
   <si>
     <t>k2</t>
   </si>
   <si>
-    <t>1 / (molecule * molecule * second)</t>
-  </si>
-  <si>
     <t>liter</t>
+  </si>
+  <si>
+    <t>Avogadro</t>
+  </si>
+  <si>
+    <t>vol_c</t>
+  </si>
+  <si>
+    <t>Volume of compartment c</t>
+  </si>
+  <si>
+    <t>c / density_c</t>
+  </si>
+  <si>
+    <t>1 / (Avogadro * vol_c)</t>
+  </si>
+  <si>
+    <t>pop_2_conc</t>
+  </si>
+  <si>
+    <t>Convert population to concentration</t>
+  </si>
+  <si>
+    <t>From scipy 1.3.1; will be updated to 2019 SI value eventually</t>
+  </si>
+  <si>
+    <t>Density compt. C</t>
+  </si>
+  <si>
+    <t>liter mole^-1 second^-1</t>
+  </si>
+  <si>
+    <t>mole / (molecule liter)</t>
+  </si>
+  <si>
+    <t>1 / mole</t>
+  </si>
+  <si>
+    <t>molecule / mole</t>
+  </si>
+  <si>
+    <t>conv_4_1</t>
+  </si>
+  <si>
+    <t>conv_4_2</t>
+  </si>
+  <si>
+    <t>Conversion factor for rate law 1</t>
+  </si>
+  <si>
+    <t>Conversion factor for rate law 2</t>
+  </si>
+  <si>
+    <t>pop_2_conc ** 2</t>
+  </si>
+  <si>
+    <t>mole^2 / (molecule liter)^2</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>Units factor for both rate laws</t>
+  </si>
+  <si>
+    <t>conv_4_1 * k1 * S1[c] * vol_c * units</t>
+  </si>
+  <si>
+    <t>conv_4_2 * k2 * S2[c] * S2[c] * vol_c * units</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.0000E+00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4872,6 +4929,40 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -4938,10 +5029,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5000,19 +5092,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -5020,8 +5152,25 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5323,10 +5472,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5611,10 +5759,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5803,16 +5950,23 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="1"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
     <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5820,9 +5974,9 @@
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -5833,13 +5987,13 @@
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="26" t="s">
         <v>66</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -5859,10 +6013,18 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>193</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -5870,10 +6032,18 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>204</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -5881,10 +6051,18 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>204</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -5892,10 +6070,18 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>212</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -5904,9 +6090,9 @@
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -5915,9 +6101,9 @@
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -5926,9 +6112,9 @@
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -5937,56 +6123,37 @@
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A2:I2"/>
   <dataValidations count="9">
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_Value mu ..." sqref="A3:A12">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_Value mu ..." sqref="A9:A10">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
-    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B3:B12">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B9:B10">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Expression" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." sqref="C3:C12"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Enter a unit or blank." sqref="D3:D12"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="E3:E12"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" sqref="F3:F12"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="G3:G12"/>
-    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="H3:H12">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Expression" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." sqref="C9:C10"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Enter a unit or blank." sqref="D9:D10"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="E9:E10"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" sqref="F9:F10"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="G9:G10"/>
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="H9:H10">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="I3:I12"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="I9:I10"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5997,10 +6164,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="1"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6033,13 +6199,13 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="42" t="s">
         <v>86</v>
       </c>
       <c r="J2" s="5"/>
@@ -6103,7 +6269,7 @@
         <v>154</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>0</v>
@@ -6122,16 +6288,16 @@
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>154</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E5" s="3" t="b">
         <v>0</v>
@@ -6338,14 +6504,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="1">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="12" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="61.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" customWidth="1"/>
+    <col min="11" max="12" width="15.6640625" customWidth="1"/>
     <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6405,7 +6581,7 @@
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>170</v>
@@ -6413,11 +6589,11 @@
       <c r="D3" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>174</v>
+      <c r="F3" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -6427,20 +6603,20 @@
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>194</v>
+      <c r="F4" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -6482,7 +6658,6 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -6496,7 +6671,6 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -6562,34 +6736,30 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:L2"/>
-  <dataValidations count="12">
-    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters._x000a__x000a_Value must be unique." promptTitle="Id" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters._x000a__x000a_Value must be unique." sqref="A3:A12">
+  <dataValidations count="11">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters._x000a__x000a_Value must be unique." promptTitle="Id" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters._x000a__x000a_Value must be unique." sqref="A8:A12">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Direction" error="Value must be one of &quot;backward&quot;, &quot;forward&quot;." promptTitle="Direction" prompt="Select one of &quot;backward&quot;, &quot;forward&quot;." sqref="D4:D12">
+    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Direction" error="Value must be one of &quot;backward&quot;, &quot;forward&quot;." promptTitle="Direction" prompt="Select one of &quot;backward&quot;, &quot;forward&quot;." sqref="D8:D12">
       <formula1>"backward,forward"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Expression" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." sqref="F5:F12"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Select one unit of &quot;1 / second&quot; or blank." sqref="G3:G12">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Select one unit of &quot;1 / second&quot; or blank." sqref="G8:G12">
       <formula1>"1 / second"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="H3:H12"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" sqref="I3:I12"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="J3:J12"/>
-    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="K3:K12">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="H8:H12"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" sqref="I8:I12"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="J8:J12"/>
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="K8:K12">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="L3:L12"/>
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_Value mu ..." sqref="C3">
-      <formula1>1</formula1>
-      <formula2>63</formula2>
-    </dataValidation>
-    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B4:B12 D3">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="L8:L12"/>
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B8:B12">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;Michaelis_Menten_rate_law&quot;, &quot;hill_rate_law&quot;, &quot;mass_action_rate_law&quot;, &quot;modular_rate_law&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;Michaelis_Menten_rate_law&quot;, &quot;hill_rate_law&quot;, &quot;mass_action_rate_law&quot;, &quot;modular_rate_law&quot; or blank." sqref="E5:E12 F3:F4">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;Michaelis_Menten_rate_law&quot;, &quot;hill_rate_law&quot;, &quot;mass_action_rate_law&quot;, &quot;modular_rate_law&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;Michaelis_Menten_rate_law&quot;, &quot;hill_rate_law&quot;, &quot;mass_action_rate_law&quot;, &quot;modular_rate_law&quot; or blank." sqref="E8:E12">
       <formula1>"Michaelis_Menten_rate_law,hill_rate_law,mass_action_rate_law,modular_rate_law"</formula1>
     </dataValidation>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Expression" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." sqref="F9:F12"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6600,7 +6770,7 @@
           <x14:formula1>
             <xm:f>'!!Reactions'!$A$4:$A$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C12</xm:sqref>
+          <xm:sqref>C8:C12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6612,10 +6782,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="1"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6865,10 +7034,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7087,10 +7255,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7329,17 +7496,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="2">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="5" width="15.6640625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="3" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" customWidth="1"/>
+    <col min="10" max="10" width="38" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
     <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7349,9 +7525,9 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="1"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -7368,13 +7544,13 @@
       <c r="C2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="26" t="s">
         <v>66</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -7394,18 +7570,19 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="D3" s="8">
+      <c r="A3" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="39">
         <v>0.35</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="36">
         <v>0</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>182</v>
+      <c r="F3" s="40" t="s">
+        <v>172</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -7414,18 +7591,19 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="D4" s="8">
+      <c r="A4" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="39">
         <v>180</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="36">
         <v>0</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>197</v>
+      <c r="F4" s="40" t="s">
+        <v>203</v>
       </c>
       <c r="K4" s="3"/>
     </row>
@@ -7433,33 +7611,61 @@
       <c r="A5" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="25">
+      <c r="D5" s="23">
         <v>1</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="23">
         <v>0</v>
       </c>
-      <c r="F5" s="22" t="s">
-        <v>185</v>
+      <c r="F5" s="27" t="s">
+        <v>183</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>186</v>
-      </c>
+      <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="A6" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="37">
+        <v>6.0221408570000002E+23</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="24" t="s">
+        <v>201</v>
+      </c>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="44">
+        <v>1</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="45" t="s">
+        <v>205</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -7470,9 +7676,9 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="3"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -7483,9 +7689,9 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="3"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="27"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -7496,69 +7702,45 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="3"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="27"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A2:K2"/>
   <dataValidations count="11">
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be a float or blank." promptTitle="Value" prompt="Enter a float or blank." sqref="D8:D12 D5">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="G9:G10"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" sqref="H9:H10"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="I9:I10"/>
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="J9:J10">
+      <formula1>4294967295</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard error" error="Value must be a float or blank." promptTitle="Standard error" prompt="Enter a float or blank._x000a__x000a_Value must be greater than or equal to 0.0." sqref="E9:E10">
+      <formula1>-1E-100</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_Value mu ..." sqref="A9:A10">
+      <formula1>1</formula1>
+      <formula2>63</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be a float or blank." promptTitle="Value" prompt="Enter a float or blank." sqref="D9:D10">
       <formula1>-1E+100</formula1>
       <formula2>1E+100</formula2>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="G5:G12 G3"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" sqref="H5:H12 H3"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="I5:I12 I3"/>
-    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="J5:J12 J3">
-      <formula1>4294967295</formula1>
-    </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="K3:K12"/>
-    <dataValidation type="decimal" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard error" error="Value must be a float or blank." promptTitle="Standard error" prompt="Enter a float or blank._x000a__x000a_Value must be greater than or equal to 0.0." sqref="E5 D3:D4 E8:E12">
-      <formula1>-1E-100</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_Value mu ..." sqref="A8:A12 A3:A5">
-      <formula1>1</formula1>
-      <formula2>63</formula2>
-    </dataValidation>
-    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B8:B12 B3:B5">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="K9:K10"/>
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B9:B10">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." sqref="C8:C12 C3:C5">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." sqref="C9:C10">
       <formula1>"kinetic_constant,K_i,K_m,k_cat,v_max"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Enter a unit or blank." sqref="F8:F12 F3:F5"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Enter a unit or blank." sqref="F9:F10"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7569,10 +7751,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7763,10 +7944,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7808,42 +7988,42 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="N2" s="42" t="s">
         <v>108</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="S2" s="26" t="s">
+      <c r="S2" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="T2" s="27" t="s">
+      <c r="T2" s="42" t="s">
         <v>110</v>
       </c>
       <c r="U2" s="5"/>
@@ -8256,12 +8436,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8292,7 +8469,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -8310,7 +8487,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -8538,10 +8715,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8685,10 +8861,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8721,10 +8896,10 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="42" t="s">
         <v>121</v>
       </c>
       <c r="I2" s="5"/>
@@ -8988,10 +9163,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9343,10 +9517,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9599,10 +9772,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9940,12 +10112,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9975,7 +10144,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -10007,7 +10176,7 @@
         <v>46</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -10039,7 +10208,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -10090,12 +10259,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10252,10 +10418,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10435,10 +10600,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10479,29 +10643,29 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="42" t="s">
         <v>56</v>
       </c>
       <c r="L2" s="5"/>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="N2" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="42" t="s">
         <v>57</v>
       </c>
       <c r="Q2" s="5"/>
@@ -10603,7 +10767,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="L4" s="11" t="s">
         <v>163</v>
@@ -10903,12 +11067,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10939,22 +11100,22 @@
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="42" t="s">
         <v>69</v>
       </c>
       <c r="I2" s="5"/>
@@ -11032,7 +11193,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="14" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="N4" s="3"/>
     </row>
@@ -11060,7 +11221,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="14" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="N5" s="3"/>
     </row>
@@ -11240,10 +11401,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11309,7 +11469,7 @@
         <v>156</v>
       </c>
       <c r="E3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -11329,7 +11489,7 @@
         <v>156</v>
       </c>
       <c r="E4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -11480,10 +11640,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11547,7 +11706,7 @@
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="15" t="s">
@@ -11573,7 +11732,7 @@
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="15" t="s">

--- a/tests/fixtures/verification/cases/semantic/00004/00004-wc_lang.xlsx
+++ b/tests/fixtures/verification/cases/semantic/00004/00004-wc_lang.xlsx
@@ -9,9 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="30140" windowHeight="6440" tabRatio="500" firstSheet="1" activeTab="10"/>
-    <workbookView xWindow="2580" yWindow="13880" windowWidth="29660" windowHeight="6680" tabRatio="500" firstSheet="4" activeTab="12"/>
-    <workbookView xWindow="1840" yWindow="6940" windowWidth="29340" windowHeight="6880" tabRatio="500" firstSheet="9" activeTab="16"/>
+    <workbookView xWindow="-22800" yWindow="460" windowWidth="22540" windowHeight="4300" tabRatio="500" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="-23040" yWindow="4800" windowWidth="22780" windowHeight="5220" tabRatio="500" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="-22900" yWindow="10120" windowWidth="22780" windowHeight="4140" tabRatio="500" firstSheet="5" activeTab="12"/>
+    <workbookView xWindow="-22940" yWindow="14340" windowWidth="22780" windowHeight="7020" tabRatio="500" firstSheet="9" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="!!_Table of contents" sheetId="1" r:id="rId1"/>
@@ -4230,7 +4231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="215">
   <si>
     <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2019-12-05 16:22:38'</t>
   </si>
@@ -4712,9 +4713,6 @@
     <t>cellular_compartment</t>
   </si>
   <si>
-    <t>fluid_compartment</t>
-  </si>
-  <si>
     <t>gram</t>
   </si>
   <si>
@@ -4784,9 +4782,6 @@
     <t>gram / liter</t>
   </si>
   <si>
-    <t>test_case_00004</t>
-  </si>
-  <si>
     <t>Two reactions using two species in one compartment</t>
   </si>
   <si>
@@ -4823,9 +4818,6 @@
     <t>Volume of compartment c</t>
   </si>
   <si>
-    <t>c / density_c</t>
-  </si>
-  <si>
     <t>1 / (Avogadro * vol_c)</t>
   </si>
   <si>
@@ -4853,34 +4845,37 @@
     <t>molecule / mole</t>
   </si>
   <si>
-    <t>conv_4_1</t>
-  </si>
-  <si>
-    <t>conv_4_2</t>
-  </si>
-  <si>
-    <t>Conversion factor for rate law 1</t>
-  </si>
-  <si>
-    <t>Conversion factor for rate law 2</t>
-  </si>
-  <si>
-    <t>pop_2_conc ** 2</t>
-  </si>
-  <si>
-    <t>mole^2 / (molecule liter)^2</t>
-  </si>
-  <si>
-    <t>units</t>
-  </si>
-  <si>
-    <t>Units factor for both rate laws</t>
-  </si>
-  <si>
-    <t>conv_4_1 * k1 * S1[c] * vol_c * units</t>
-  </si>
-  <si>
-    <t>conv_4_2 * k2 * S2[c] * S2[c] * vol_c * units</t>
+    <t>test_case_00004_pop_mass_independent</t>
+  </si>
+  <si>
+    <t>abstract_compartment</t>
+  </si>
+  <si>
+    <t>Must equal volume of c in Compartments</t>
+  </si>
+  <si>
+    <t>1 / molecule</t>
+  </si>
+  <si>
+    <t>Units conversion</t>
+  </si>
+  <si>
+    <t>rl_units_conv</t>
+  </si>
+  <si>
+    <t>Avogadro * rl_units_conv</t>
+  </si>
+  <si>
+    <t>conv</t>
+  </si>
+  <si>
+    <t>k1 * S1[c] * pop_2_conc * vol_c * conv</t>
+  </si>
+  <si>
+    <t>k2 * S2[c] * S2[c] * pop_2_conc**2 * vol_c * conv</t>
+  </si>
+  <si>
+    <t>Conversion factor for rate laws</t>
   </si>
 </sst>
 </file>
@@ -4959,13 +4954,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4993,6 +4988,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFAAAAAA"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -5029,11 +5030,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5146,9 +5148,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5156,21 +5155,26 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5475,6 +5479,7 @@
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
     <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5759,9 +5764,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
+    <sheetView showRowColHeaders="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F4"/>
+    </sheetView>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="1"/>
     <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5952,11 +5960,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView showRowColHeaders="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F4"/>
     </sheetView>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="1"/>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="1">
+      <selection activeCell="A3" sqref="A3:D4"/>
+    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6014,16 +6025,16 @@
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>197</v>
-      </c>
       <c r="D3" s="27" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -6033,16 +6044,16 @@
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -6051,18 +6062,10 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>204</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -6070,18 +6073,10 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>212</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -6110,50 +6105,30 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A2:I2"/>
   <dataValidations count="9">
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_Value mu ..." sqref="A9:A10">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_Value mu ..." sqref="A7:A8">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
-    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B9:B10">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B7:B8">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Expression" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." sqref="C9:C10"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Enter a unit or blank." sqref="D9:D10"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="E9:E10"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" sqref="F9:F10"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="G9:G10"/>
-    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="H9:H10">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Expression" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." sqref="C7:C8"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Enter a unit or blank." sqref="D7:D8"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="E7:E8"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" sqref="F7:F8"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="G7:G8"/>
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="H7:H8">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="I9:I10"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="I7:I8"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6164,9 +6139,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
+    <sheetView showRowColHeaders="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="1"/>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6199,13 +6177,13 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="47" t="s">
         <v>86</v>
       </c>
       <c r="J2" s="5"/>
@@ -6230,7 +6208,7 @@
       <c r="E3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="45" t="s">
         <v>90</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -6260,22 +6238,22 @@
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>170</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>171</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>154</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>172</v>
+      <c r="F4" s="42" t="s">
+        <v>171</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -6288,22 +6266,22 @@
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>154</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E5" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -6479,7 +6457,7 @@
       <formula1>4294967295</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="N4:N13"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Select one unit of &quot;1 / second&quot; or blank." sqref="F4:F5">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Select one unit of &quot;1 / second&quot; or blank." sqref="F5">
       <formula1>"1 / second"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6504,11 +6482,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="1">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="1">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="2"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="2">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6581,19 +6564,19 @@
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -6603,20 +6586,20 @@
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -6782,9 +6765,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="1"/>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7034,9 +7018,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="2"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7255,9 +7240,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="2"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7496,17 +7482,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="2">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="3">
+      <selection activeCell="J5" sqref="A5:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
     <col min="2" max="2" width="28.33203125" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" style="21" customWidth="1"/>
@@ -7571,7 +7558,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="35"/>
@@ -7582,7 +7569,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -7592,7 +7579,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="35"/>
@@ -7603,16 +7590,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="23">
@@ -7622,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -7632,7 +7619,7 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -7641,108 +7628,72 @@
       </c>
       <c r="E6" s="35"/>
       <c r="F6" s="38" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
       <c r="J6" s="24" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>214</v>
-      </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="44">
+      <c r="A7" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="43">
         <v>1</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="45" t="s">
-        <v>205</v>
+      <c r="E7" s="23">
+        <v>0</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>191</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="J7" s="29" t="s">
+        <v>206</v>
+      </c>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>208</v>
+      </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="27"/>
+      <c r="D8" s="44">
+        <v>1</v>
+      </c>
+      <c r="E8" s="23">
+        <v>0</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>207</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A2:K2"/>
-  <dataValidations count="11">
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="G9:G10"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" sqref="H9:H10"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="I9:I10"/>
-    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="J9:J10">
-      <formula1>4294967295</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard error" error="Value must be a float or blank." promptTitle="Standard error" prompt="Enter a float or blank._x000a__x000a_Value must be greater than or equal to 0.0." sqref="E9:E10">
-      <formula1>-1E-100</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 63 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 63 characters._x000a__x000a_Value mu ..." sqref="A9:A10">
-      <formula1>1</formula1>
-      <formula2>63</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be a float or blank." promptTitle="Value" prompt="Enter a float or blank." sqref="D9:D10">
-      <formula1>-1E+100</formula1>
-      <formula2>1E+100</formula2>
-    </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="K9:K10"/>
-    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B9:B10">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." sqref="C9:C10">
-      <formula1>"kinetic_constant,K_i,K_m,k_cat,v_max"</formula1>
-    </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Enter a unit or blank." sqref="F9:F10"/>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -7751,9 +7702,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="2"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7944,9 +7896,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="2"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7988,42 +7941,42 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="N2" s="42" t="s">
+      <c r="N2" s="47" t="s">
         <v>108</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="R2" s="42" t="s">
+      <c r="R2" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="S2" s="41" t="s">
+      <c r="S2" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="T2" s="42" t="s">
+      <c r="T2" s="47" t="s">
         <v>110</v>
       </c>
       <c r="U2" s="5"/>
@@ -8436,9 +8389,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
+    <sheetView showRowColHeaders="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="1"/>
     <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8469,7 +8425,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -8487,7 +8443,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -8718,6 +8674,7 @@
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
     <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8864,6 +8821,7 @@
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
     <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8896,10 +8854,10 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="47" t="s">
         <v>121</v>
       </c>
       <c r="I2" s="5"/>
@@ -9166,6 +9124,7 @@
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
     <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9520,6 +9479,7 @@
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
     <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9775,6 +9735,7 @@
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
     <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10112,9 +10073,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
+    <sheetView showRowColHeaders="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="1"/>
     <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10144,7 +10108,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -10176,7 +10140,7 @@
         <v>46</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -10208,7 +10172,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -10259,9 +10223,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
+    <sheetView showRowColHeaders="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F4"/>
+    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="1"/>
     <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10418,9 +10385,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
+    <sheetView showRowColHeaders="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F4"/>
+    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="1"/>
     <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10600,9 +10570,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="1"/>
     <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10643,29 +10616,29 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="47" t="s">
         <v>56</v>
       </c>
       <c r="L2" s="5"/>
-      <c r="M2" s="41" t="s">
+      <c r="M2" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="42" t="s">
+      <c r="N2" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="O2" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="42" t="s">
+      <c r="P2" s="47" t="s">
         <v>57</v>
       </c>
       <c r="Q2" s="5"/>
@@ -10690,7 +10663,7 @@
       <c r="E3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="41" t="s">
         <v>61</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -10750,15 +10723,15 @@
         <v>159</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>161</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>162</v>
       </c>
       <c r="I4" s="9">
         <v>1</v>
@@ -10767,10 +10740,10 @@
         <v>0</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -11067,9 +11040,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
+    <sheetView showRowColHeaders="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="1"/>
     <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11100,22 +11076,22 @@
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="47" t="s">
         <v>69</v>
       </c>
       <c r="I2" s="5"/>
@@ -11141,7 +11117,7 @@
       <c r="E3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="41" t="s">
         <v>73</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -11171,10 +11147,10 @@
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -11187,22 +11163,22 @@
         <v>0</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -11215,13 +11191,13 @@
         <v>0</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="N5" s="3"/>
     </row>
@@ -11401,9 +11377,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
+    <sheetView showRowColHeaders="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F4"/>
+    </sheetView>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="1"/>
     <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11459,17 +11438,17 @@
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>156</v>
       </c>
       <c r="E3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -11479,17 +11458,17 @@
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>156</v>
       </c>
       <c r="E4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -11640,9 +11619,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0"/>
+    <sheetView showRowColHeaders="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="1"/>
     <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11706,14 +11688,14 @@
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E3" s="18">
         <v>0.15</v>
@@ -11722,7 +11704,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -11732,14 +11714,14 @@
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E4" s="15">
         <v>0</v>
@@ -11748,7 +11730,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>

--- a/tests/fixtures/verification/cases/semantic/00004/00004-wc_lang.xlsx
+++ b/tests/fixtures/verification/cases/semantic/00004/00004-wc_lang.xlsx
@@ -2972,7 +2972,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observable' name='Observables' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observable' name='Observables' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3204,7 +3204,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Function' name='Functions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Function' name='Functions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="30" t="n"/>
@@ -3421,7 +3421,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reaction' name='Reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reaction' name='Reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3817,7 +3817,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='RateLaw' name='Rate laws' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='RateLaw' name='Rate laws' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4131,7 +4131,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjective' name='dFBA objectives' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjective' name='dFBA objectives' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4410,7 +4410,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjReaction' name='dFBA objective reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjReaction' name='dFBA objective reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4654,7 +4654,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjSpecies' name='dFBA objective species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjSpecies' name='dFBA objective species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4923,7 +4923,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Parameter' name='Parameters' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Parameter' name='Parameters' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5200,7 +5200,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='StopCondition' name='Stop conditions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='StopCondition' name='Stop conditions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5426,7 +5426,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observation' name='Observations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observation' name='Observations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5965,7 +5965,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Model' name='Models' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Model' name='Models' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6295,7 +6295,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='ObservationSet' name='Observation sets' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='ObservationSet' name='Observation sets' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6468,7 +6468,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Conclusion' name='Conclusions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Conclusion' name='Conclusions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6812,7 +6812,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reference' name='References' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reference' name='References' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7217,7 +7217,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Author' name='Authors' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Author' name='Authors' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7511,7 +7511,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Change' name='Changes' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Change' name='Changes' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7890,7 +7890,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Taxon' name='Taxons' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Taxon' name='Taxons' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
@@ -8069,7 +8069,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Environment' name='Environments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Environment' name='Environments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
@@ -8256,7 +8256,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Submodel' name='Submodels' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Submodel' name='Submodels' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -8475,7 +8475,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Compartment' name='Compartments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Compartment' name='Compartments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -8985,7 +8985,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='SpeciesType' name='Species types' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='SpeciesType' name='Species types' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -9363,7 +9363,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Species' name='Species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Species' name='Species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -9635,7 +9635,7 @@
     <row r="1" ht="15" customHeight="1" s="19">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DistributionInitConcentration' name='Init species concentrations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DistributionInitConcentration' name='Init species concentrations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
